--- a/ResultadosSA.xlsx
+++ b/ResultadosSA.xlsx
@@ -10,6 +10,23 @@
     <sheet name="I1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="I2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="I3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="I4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="I5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="I6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="I7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="I8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="I9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="I10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="I11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="I12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="I13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="I14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="I15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="I16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="I17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="I18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="I19" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="I20" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,116 +457,3945 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31</v>
+      </c>
+      <c r="L3" t="n">
+        <v>33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43</v>
+      </c>
+      <c r="N3" t="n">
+        <v>44</v>
+      </c>
+      <c r="O3" t="n">
+        <v>46</v>
+      </c>
+      <c r="P3" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>78</v>
+      </c>
+      <c r="S3" t="n">
+        <v>82</v>
+      </c>
+      <c r="T3" t="n">
+        <v>88</v>
+      </c>
+      <c r="U3" t="n">
+        <v>89</v>
+      </c>
+      <c r="V3" t="n">
+        <v>90</v>
+      </c>
+      <c r="W3" t="n">
+        <v>92</v>
+      </c>
+      <c r="X3" t="n">
+        <v>93</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11925</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13705</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11261</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12684</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13318</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-6091</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-13584</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>30438</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25560</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BK5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45</v>
+      </c>
+      <c r="M3" t="n">
+        <v>47</v>
+      </c>
+      <c r="N3" t="n">
+        <v>49</v>
+      </c>
+      <c r="O3" t="n">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>71</v>
+      </c>
+      <c r="S3" t="n">
+        <v>73</v>
+      </c>
+      <c r="T3" t="n">
+        <v>74</v>
+      </c>
+      <c r="U3" t="n">
+        <v>77</v>
+      </c>
+      <c r="V3" t="n">
+        <v>95</v>
+      </c>
+      <c r="W3" t="n">
+        <v>100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>106</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>108</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>113</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>116</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>119</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>124</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>132</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>135</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>139</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>144</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>152</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>159</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>161</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>164</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>173</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>192</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>194</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>196</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>202</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>212</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>213</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>219</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>224</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>233</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>240</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>241</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>242</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>248</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32710</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30089</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29804</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29987</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29961</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31038</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29602</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29777</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30797</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-13078</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-33721</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-31398</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-29333</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-30739</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>76776</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50121</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DU5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="n">
+        <v>38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>47</v>
+      </c>
+      <c r="K3" t="n">
+        <v>53</v>
+      </c>
+      <c r="L3" t="n">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>59</v>
+      </c>
+      <c r="N3" t="n">
+        <v>60</v>
+      </c>
+      <c r="O3" t="n">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>73</v>
+      </c>
+      <c r="S3" t="n">
+        <v>74</v>
+      </c>
+      <c r="T3" t="n">
+        <v>85</v>
+      </c>
+      <c r="U3" t="n">
+        <v>93</v>
+      </c>
+      <c r="V3" t="n">
+        <v>95</v>
+      </c>
+      <c r="W3" t="n">
+        <v>100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>103</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>105</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>108</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>113</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>114</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>115</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>116</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>125</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>135</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>139</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>144</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>152</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>159</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>161</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>167</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>173</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>181</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>192</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>196</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>202</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>212</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>219</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>224</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>228</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>233</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>238</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>240</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>242</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>248</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>255</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>262</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>263</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>271</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>279</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>286</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>302</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>304</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>311</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>312</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>314</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>315</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>318</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>323</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>325</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>329</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>331</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>338</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>341</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>344</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>349</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>358</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>359</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>361</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>364</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>365</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>366</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>378</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>379</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>380</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>382</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>387</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>388</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>392</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>396</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>399</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>400</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>404</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>405</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>406</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>409</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>410</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>417</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>429</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>432</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>434</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>443</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>449</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>450</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>452</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>456</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>460</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>462</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>464</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>472</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>476</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>479</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>488</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>492</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>496</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60423</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62049</v>
+      </c>
+      <c r="C4" t="n">
+        <v>59010</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61604</v>
+      </c>
+      <c r="E4" t="n">
+        <v>62877</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60440</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60666</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60624</v>
+      </c>
+      <c r="I4" t="n">
+        <v>65110</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57545</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-26052</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-63779</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-63049</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-61192</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-63859</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>150047</v>
+      </c>
+      <c r="B5" t="n">
+        <v>95034</v>
+      </c>
+      <c r="C5" t="n">
+        <v>71394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DT5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3" t="n">
+        <v>27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45</v>
+      </c>
+      <c r="M3" t="n">
+        <v>47</v>
+      </c>
+      <c r="N3" t="n">
+        <v>48</v>
+      </c>
+      <c r="O3" t="n">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>71</v>
+      </c>
+      <c r="S3" t="n">
+        <v>73</v>
+      </c>
+      <c r="T3" t="n">
+        <v>74</v>
+      </c>
+      <c r="U3" t="n">
+        <v>85</v>
+      </c>
+      <c r="V3" t="n">
+        <v>88</v>
+      </c>
+      <c r="W3" t="n">
+        <v>93</v>
+      </c>
+      <c r="X3" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>99</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>102</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>106</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>108</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>113</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>115</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>116</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>119</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>125</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>135</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>139</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>144</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>159</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>161</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>165</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>189</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>192</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>196</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>202</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>203</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>206</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>210</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>212</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>217</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>219</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>224</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>228</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>230</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>241</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>242</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>247</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>262</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>263</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>276</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>279</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>282</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>288</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>289</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>291</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>293</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>304</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>306</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>311</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>315</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>323</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>325</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>329</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>331</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>338</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>341</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>352</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>353</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>356</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>357</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>358</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>364</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>365</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>371</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>378</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>379</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>385</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>388</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>392</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>393</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>395</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>399</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>404</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>408</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>409</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>410</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>427</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>429</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>434</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>437</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>439</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>441</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>450</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>457</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>460</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>462</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>472</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>476</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>488</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>492</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62297</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60177</v>
+      </c>
+      <c r="C4" t="n">
+        <v>61273</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64943</v>
+      </c>
+      <c r="E4" t="n">
+        <v>66100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>61385</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60410</v>
+      </c>
+      <c r="H4" t="n">
+        <v>63267</v>
+      </c>
+      <c r="I4" t="n">
+        <v>61132</v>
+      </c>
+      <c r="J4" t="n">
+        <v>59001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-28209</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-61420</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-62951</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-60980</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-62864</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>152049</v>
+      </c>
+      <c r="B5" t="n">
+        <v>105958</v>
+      </c>
+      <c r="C5" t="n">
+        <v>71633</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AS5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>59</v>
+      </c>
+      <c r="N3" t="n">
+        <v>61</v>
+      </c>
+      <c r="O3" t="n">
+        <v>64</v>
+      </c>
+      <c r="P3" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>68</v>
+      </c>
+      <c r="R3" t="n">
+        <v>76</v>
+      </c>
+      <c r="S3" t="n">
+        <v>81</v>
+      </c>
+      <c r="T3" t="n">
+        <v>86</v>
+      </c>
+      <c r="U3" t="n">
+        <v>88</v>
+      </c>
+      <c r="V3" t="n">
+        <v>96</v>
+      </c>
+      <c r="W3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11320</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11798</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7404</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9245</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13899</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11589</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11461</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9860</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12688</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10482</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9176</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11730</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12291</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10491</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11549</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10025</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>10520</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12711</v>
+      </c>
+      <c r="S4" t="n">
+        <v>11005</v>
+      </c>
+      <c r="T4" t="n">
+        <v>11797</v>
+      </c>
+      <c r="U4" t="n">
+        <v>11540</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12519</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11974</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10245</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9615</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12228</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11960</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11919</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11243</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11997</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-7971</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-13581</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-10107</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-10406</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-14067</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-12218</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-12251</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-14116</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-11281</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-11860</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-12370</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-12975</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-12249</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-10459</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-12031</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20554</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11172</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AS5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36</v>
+      </c>
+      <c r="L3" t="n">
+        <v>37</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43</v>
+      </c>
+      <c r="N3" t="n">
+        <v>46</v>
+      </c>
+      <c r="O3" t="n">
+        <v>48</v>
+      </c>
+      <c r="P3" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>66</v>
+      </c>
+      <c r="R3" t="n">
+        <v>67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>72</v>
+      </c>
+      <c r="T3" t="n">
+        <v>74</v>
+      </c>
+      <c r="U3" t="n">
+        <v>84</v>
+      </c>
+      <c r="V3" t="n">
+        <v>87</v>
+      </c>
+      <c r="W3" t="n">
+        <v>97</v>
+      </c>
+      <c r="X3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10866</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12463</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13272</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12676</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11287</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11145</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11292</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12152</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11200</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11963</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12491</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10121</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11424</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12559</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11114</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12021</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>10694</v>
+      </c>
+      <c r="R4" t="n">
+        <v>9339</v>
+      </c>
+      <c r="S4" t="n">
+        <v>11479</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12168</v>
+      </c>
+      <c r="U4" t="n">
+        <v>11476</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12939</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11065</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11690</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12544</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10931</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>12255</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10226</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10032</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10636</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-8175</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-13435</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-13158</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-12439</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-13711</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-10901</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-12984</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-11484</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-13640</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-12727</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-13799</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-12666</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-14085</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-11736</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-13781</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21085</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11117</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11971</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BI5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>29</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>47</v>
+      </c>
+      <c r="O3" t="n">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>63</v>
+      </c>
+      <c r="R3" t="n">
+        <v>66</v>
+      </c>
+      <c r="S3" t="n">
+        <v>67</v>
+      </c>
+      <c r="T3" t="n">
+        <v>68</v>
+      </c>
+      <c r="U3" t="n">
+        <v>73</v>
+      </c>
+      <c r="V3" t="n">
+        <v>83</v>
+      </c>
+      <c r="W3" t="n">
+        <v>84</v>
+      </c>
+      <c r="X3" t="n">
+        <v>86</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>91</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>97</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>111</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>115</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>116</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>117</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>123</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>127</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>132</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>139</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>171</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>173</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>182</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>188</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>192</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>195</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>196</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>209</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>210</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>212</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>214</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>218</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>219</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>226</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31103</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31356</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30306</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29925</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27088</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29457</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30255</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30018</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29510</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30264</v>
+      </c>
+      <c r="L4" t="n">
+        <v>31695</v>
+      </c>
+      <c r="M4" t="n">
+        <v>31129</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27573</v>
+      </c>
+      <c r="O4" t="n">
+        <v>25526</v>
+      </c>
+      <c r="P4" t="n">
+        <v>29220</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>30008</v>
+      </c>
+      <c r="R4" t="n">
+        <v>30242</v>
+      </c>
+      <c r="S4" t="n">
+        <v>29637</v>
+      </c>
+      <c r="T4" t="n">
+        <v>30626</v>
+      </c>
+      <c r="U4" t="n">
+        <v>30602</v>
+      </c>
+      <c r="V4" t="n">
+        <v>31773</v>
+      </c>
+      <c r="W4" t="n">
+        <v>26606</v>
+      </c>
+      <c r="X4" t="n">
+        <v>28965</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>30893</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>30990</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>27597</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>31948</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>28693</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>29997</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-18314</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-31084</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-31219</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-26471</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-33337</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-31701</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-33500</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-33451</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-28174</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-27321</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-29544</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-32961</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-33475</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-30539</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-30859</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>67330</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32093</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BG5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>35</v>
+      </c>
+      <c r="L3" t="n">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>41</v>
+      </c>
+      <c r="N3" t="n">
+        <v>46</v>
+      </c>
+      <c r="O3" t="n">
+        <v>54</v>
+      </c>
+      <c r="P3" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>69</v>
+      </c>
+      <c r="S3" t="n">
+        <v>72</v>
+      </c>
+      <c r="T3" t="n">
+        <v>75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>81</v>
+      </c>
+      <c r="V3" t="n">
+        <v>84</v>
+      </c>
+      <c r="W3" t="n">
+        <v>88</v>
+      </c>
+      <c r="X3" t="n">
+        <v>96</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>97</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>98</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>111</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>113</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>122</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>128</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>132</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>139</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>154</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>166</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>180</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>192</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>195</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>196</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>205</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>206</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>211</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>218</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>220</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>226</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>229</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>233</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>241</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29104</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26232</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26224</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30672</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27678</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29136</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30375</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29755</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31767</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32573</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29906</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28586</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30182</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29105</v>
+      </c>
+      <c r="O4" t="n">
+        <v>29797</v>
+      </c>
+      <c r="P4" t="n">
+        <v>29391</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>31250</v>
+      </c>
+      <c r="R4" t="n">
+        <v>31399</v>
+      </c>
+      <c r="S4" t="n">
+        <v>24903</v>
+      </c>
+      <c r="T4" t="n">
+        <v>26231</v>
+      </c>
+      <c r="U4" t="n">
+        <v>33031</v>
+      </c>
+      <c r="V4" t="n">
+        <v>31088</v>
+      </c>
+      <c r="W4" t="n">
+        <v>30246</v>
+      </c>
+      <c r="X4" t="n">
+        <v>32467</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>31701</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>28141</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>30868</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>32615</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>29981</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>29840</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-14895</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-28710</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-31439</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-30597</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-27251</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-31763</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-29460</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-33222</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-27215</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-27172</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-24497</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-32857</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-33477</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-26209</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-28851</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66148</v>
+      </c>
+      <c r="B5" t="n">
+        <v>34325</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32031</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DJ5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
         <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
       </c>
       <c r="G3" t="n">
         <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L3" t="n">
+        <v>36</v>
+      </c>
+      <c r="M3" t="n">
         <v>39</v>
       </c>
-      <c r="M3" t="n">
-        <v>44</v>
-      </c>
       <c r="N3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="R3" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="S3" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="T3" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="U3" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="V3" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="W3" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="X3" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>91</v>
+      </c>
+      <c r="Z3" t="n">
         <v>95</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB3" t="n">
         <v>97</v>
       </c>
-      <c r="Z3" t="n">
-        <v>100</v>
+      <c r="AC3" t="n">
+        <v>102</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>116</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>138</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>139</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>143</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>153</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>154</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>155</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>180</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>182</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>183</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>188</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>190</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>191</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>192</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>194</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>209</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>211</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>218</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>220</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>226</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>237</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>247</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>248</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>265</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>272</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>279</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>287</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>288</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>299</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>300</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>304</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>307</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>311</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>317</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>329</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>330</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>331</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>338</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>341</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>346</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>347</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>353</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>358</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>366</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>375</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>377</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>379</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>385</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>393</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>399</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>410</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>413</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>416</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>428</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>431</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>438</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>439</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>440</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>441</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>443</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>444</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>454</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>460</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>462</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>476</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>479</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>482</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>487</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>491</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11826</v>
+        <v>57590</v>
       </c>
       <c r="B4" t="n">
-        <v>13508</v>
+        <v>51067</v>
       </c>
       <c r="C4" t="n">
-        <v>11465</v>
+        <v>53796</v>
       </c>
       <c r="D4" t="n">
-        <v>11266</v>
+        <v>54523</v>
       </c>
       <c r="E4" t="n">
-        <v>13427</v>
+        <v>55663</v>
       </c>
       <c r="F4" t="n">
-        <v>-5202</v>
+        <v>59818</v>
       </c>
       <c r="G4" t="n">
-        <v>-13981</v>
+        <v>57886</v>
+      </c>
+      <c r="H4" t="n">
+        <v>56616</v>
+      </c>
+      <c r="I4" t="n">
+        <v>57977</v>
+      </c>
+      <c r="J4" t="n">
+        <v>55336</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57471</v>
+      </c>
+      <c r="L4" t="n">
+        <v>58563</v>
+      </c>
+      <c r="M4" t="n">
+        <v>59041</v>
+      </c>
+      <c r="N4" t="n">
+        <v>57177</v>
+      </c>
+      <c r="O4" t="n">
+        <v>55636</v>
+      </c>
+      <c r="P4" t="n">
+        <v>51017</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>58115</v>
+      </c>
+      <c r="R4" t="n">
+        <v>56992</v>
+      </c>
+      <c r="S4" t="n">
+        <v>58850</v>
+      </c>
+      <c r="T4" t="n">
+        <v>53442</v>
+      </c>
+      <c r="U4" t="n">
+        <v>55777</v>
+      </c>
+      <c r="V4" t="n">
+        <v>55285</v>
+      </c>
+      <c r="W4" t="n">
+        <v>57374</v>
+      </c>
+      <c r="X4" t="n">
+        <v>61298</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>58829</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>60376</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>57739</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>56440</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>58592</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>51028</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-36789</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-58343</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-58992</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-53304</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-59405</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-57983</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-54921</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-56659</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-52430</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-55116</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-64762</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-58654</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-55946</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-58572</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-59207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>31616</v>
+        <v>122336</v>
       </c>
       <c r="B5" t="n">
-        <v>26219</v>
+        <v>61077</v>
       </c>
       <c r="C5" t="n">
-        <v>13769</v>
+        <v>55722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H3" t="n">
+        <v>45</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+      <c r="K3" t="n">
+        <v>66</v>
+      </c>
+      <c r="L3" t="n">
+        <v>67</v>
+      </c>
+      <c r="M3" t="n">
+        <v>68</v>
+      </c>
+      <c r="N3" t="n">
+        <v>69</v>
+      </c>
+      <c r="O3" t="n">
+        <v>77</v>
+      </c>
+      <c r="P3" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>89</v>
+      </c>
+      <c r="R3" t="n">
+        <v>95</v>
+      </c>
+      <c r="S3" t="n">
+        <v>99</v>
+      </c>
+      <c r="T3" t="n">
+        <v>109</v>
+      </c>
+      <c r="U3" t="n">
+        <v>111</v>
+      </c>
+      <c r="V3" t="n">
+        <v>113</v>
+      </c>
+      <c r="W3" t="n">
+        <v>117</v>
+      </c>
+      <c r="X3" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>127</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>128</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>129</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>131</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>139</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>143</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>153</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>161</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>166</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>179</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>181</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>188</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>191</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>193</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>194</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>203</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>204</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>207</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>208</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>211</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>213</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>214</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>215</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>219</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>220</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>226</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>233</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>243</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>248</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>262</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>268</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>269</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>270</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>271</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>274</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>275</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>287</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>294</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>297</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>298</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>300</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>305</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>308</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>314</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>319</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>321</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>323</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>324</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>328</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>329</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>335</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>336</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>341</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>346</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>353</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>355</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>358</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>362</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>365</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>371</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>372</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>377</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>378</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>380</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>384</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>385</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>395</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>396</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>399</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>403</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>406</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>409</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>414</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>417</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>420</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>422</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>432</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>435</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>439</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>452</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>460</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>462</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>475</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>476</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>494</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59555</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60829</v>
+      </c>
+      <c r="C4" t="n">
+        <v>53950</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61023</v>
+      </c>
+      <c r="E4" t="n">
+        <v>58106</v>
+      </c>
+      <c r="F4" t="n">
+        <v>58086</v>
+      </c>
+      <c r="G4" t="n">
+        <v>54133</v>
+      </c>
+      <c r="H4" t="n">
+        <v>58421</v>
+      </c>
+      <c r="I4" t="n">
+        <v>59984</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57434</v>
+      </c>
+      <c r="K4" t="n">
+        <v>59365</v>
+      </c>
+      <c r="L4" t="n">
+        <v>58870</v>
+      </c>
+      <c r="M4" t="n">
+        <v>61990</v>
+      </c>
+      <c r="N4" t="n">
+        <v>59454</v>
+      </c>
+      <c r="O4" t="n">
+        <v>56434</v>
+      </c>
+      <c r="P4" t="n">
+        <v>56150</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>61540</v>
+      </c>
+      <c r="R4" t="n">
+        <v>59473</v>
+      </c>
+      <c r="S4" t="n">
+        <v>52156</v>
+      </c>
+      <c r="T4" t="n">
+        <v>60052</v>
+      </c>
+      <c r="U4" t="n">
+        <v>59574</v>
+      </c>
+      <c r="V4" t="n">
+        <v>59026</v>
+      </c>
+      <c r="W4" t="n">
+        <v>56959</v>
+      </c>
+      <c r="X4" t="n">
+        <v>58800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>58966</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>57441</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>57768</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>61960</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>61008</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>57657</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-40630</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-62127</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-61554</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-55276</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-68638</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-58987</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-59081</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-63137</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-59559</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-53973</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-65655</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-61591</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-66068</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-59026</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-62578</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>119101</v>
+      </c>
+      <c r="B5" t="n">
+        <v>64775</v>
+      </c>
+      <c r="C5" t="n">
+        <v>52298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BX5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15</v>
+      </c>
+      <c r="N3" t="n">
+        <v>16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>20</v>
+      </c>
+      <c r="R3" t="n">
+        <v>21</v>
+      </c>
+      <c r="S3" t="n">
+        <v>22</v>
+      </c>
+      <c r="T3" t="n">
+        <v>24</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25</v>
+      </c>
+      <c r="V3" t="n">
+        <v>26</v>
+      </c>
+      <c r="W3" t="n">
+        <v>27</v>
+      </c>
+      <c r="X3" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>43</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>47</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>49</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>53</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>54</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>57</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>58</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>59</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>61</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>62</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>63</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>64</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>65</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>66</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>68</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>69</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>70</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>71</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>72</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>73</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>74</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>75</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>76</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>77</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>78</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>80</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>82</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>83</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>88</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-64</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-210</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20994</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>359</v>
+      </c>
+      <c r="B5" t="n">
+        <v>76</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6286</v>
       </c>
     </row>
   </sheetData>
@@ -563,7 +4409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +4429,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -597,46 +4443,46 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
         <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K3" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L3" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" t="n">
         <v>54</v>
       </c>
       <c r="O3" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R3" t="n">
         <v>78</v>
@@ -657,44 +4503,807 @@
         <v>95</v>
       </c>
       <c r="X3" t="n">
+        <v>97</v>
+      </c>
+      <c r="Y3" t="n">
         <v>98</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12801</v>
+        <v>12821</v>
       </c>
       <c r="B4" t="n">
-        <v>12917</v>
+        <v>13118</v>
       </c>
       <c r="C4" t="n">
-        <v>11370</v>
+        <v>11933</v>
       </c>
       <c r="D4" t="n">
-        <v>12232</v>
+        <v>11793</v>
       </c>
       <c r="E4" t="n">
-        <v>13728</v>
+        <v>13779</v>
       </c>
       <c r="F4" t="n">
-        <v>-5750</v>
+        <v>-5299</v>
       </c>
       <c r="G4" t="n">
-        <v>-13688</v>
+        <v>-14370</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27087</v>
+        <v>28505</v>
       </c>
       <c r="B5" t="n">
-        <v>23979</v>
+        <v>24251</v>
       </c>
       <c r="C5" t="n">
-        <v>13869</v>
+        <v>14524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:GB5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26</v>
+      </c>
+      <c r="K3" t="n">
+        <v>27</v>
+      </c>
+      <c r="L3" t="n">
+        <v>28</v>
+      </c>
+      <c r="M3" t="n">
+        <v>29</v>
+      </c>
+      <c r="N3" t="n">
+        <v>32</v>
+      </c>
+      <c r="O3" t="n">
+        <v>33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>35</v>
+      </c>
+      <c r="R3" t="n">
+        <v>39</v>
+      </c>
+      <c r="S3" t="n">
+        <v>41</v>
+      </c>
+      <c r="T3" t="n">
+        <v>43</v>
+      </c>
+      <c r="U3" t="n">
+        <v>44</v>
+      </c>
+      <c r="V3" t="n">
+        <v>48</v>
+      </c>
+      <c r="W3" t="n">
+        <v>50</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>59</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>68</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>71</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>72</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>78</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>82</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>92</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>94</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>96</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>107</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>115</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>116</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>118</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53</v>
+      </c>
+      <c r="B5" t="n">
+        <v>360</v>
+      </c>
+      <c r="C5" t="n">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +5317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM5"/>
+  <dimension ref="A1:BL5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +5337,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -736,6 +5345,268 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31</v>
+      </c>
+      <c r="L3" t="n">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>42</v>
+      </c>
+      <c r="N3" t="n">
+        <v>43</v>
+      </c>
+      <c r="O3" t="n">
+        <v>45</v>
+      </c>
+      <c r="P3" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>54</v>
+      </c>
+      <c r="R3" t="n">
+        <v>58</v>
+      </c>
+      <c r="S3" t="n">
+        <v>71</v>
+      </c>
+      <c r="T3" t="n">
+        <v>75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>78</v>
+      </c>
+      <c r="V3" t="n">
+        <v>88</v>
+      </c>
+      <c r="W3" t="n">
+        <v>93</v>
+      </c>
+      <c r="X3" t="n">
+        <v>97</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>98</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>106</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>115</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>117</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>119</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>125</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>176</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>181</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>182</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>185</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>188</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>189</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>197</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>199</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>202</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>203</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>209</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>219</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>227</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>229</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>231</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>237</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>240</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>243</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29459</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29449</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32059</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31227</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29725</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-12013</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-32040</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>85118</v>
+      </c>
+      <c r="B5" t="n">
+        <v>71650</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BL5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
         <v>6</v>
       </c>
       <c r="C3" t="n">
@@ -745,221 +5616,1726 @@
         <v>8</v>
       </c>
       <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" t="n">
         <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31</v>
+      </c>
+      <c r="L3" t="n">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>42</v>
+      </c>
+      <c r="N3" t="n">
+        <v>43</v>
+      </c>
+      <c r="O3" t="n">
+        <v>45</v>
+      </c>
+      <c r="P3" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>58</v>
+      </c>
+      <c r="R3" t="n">
+        <v>75</v>
+      </c>
+      <c r="S3" t="n">
+        <v>78</v>
+      </c>
+      <c r="T3" t="n">
+        <v>88</v>
+      </c>
+      <c r="U3" t="n">
+        <v>90</v>
+      </c>
+      <c r="V3" t="n">
+        <v>92</v>
+      </c>
+      <c r="W3" t="n">
+        <v>95</v>
+      </c>
+      <c r="X3" t="n">
+        <v>97</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>98</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>115</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>119</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>122</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>123</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>125</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>169</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>176</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>182</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>184</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>185</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>186</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>188</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>189</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>197</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>202</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>203</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>206</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>219</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>227</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>229</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>231</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>237</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>240</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29335</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31779</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30096</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31521</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31459</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-10792</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-28639</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>78991</v>
+      </c>
+      <c r="B5" t="n">
+        <v>71466</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DT5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>27</v>
+      </c>
+      <c r="H3" t="n">
+        <v>28</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31</v>
+      </c>
+      <c r="J3" t="n">
+        <v>42</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43</v>
+      </c>
+      <c r="L3" t="n">
+        <v>46</v>
+      </c>
+      <c r="M3" t="n">
+        <v>78</v>
+      </c>
+      <c r="N3" t="n">
+        <v>88</v>
+      </c>
+      <c r="O3" t="n">
+        <v>90</v>
+      </c>
+      <c r="P3" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>95</v>
+      </c>
+      <c r="R3" t="n">
+        <v>100</v>
+      </c>
+      <c r="S3" t="n">
+        <v>103</v>
+      </c>
+      <c r="T3" t="n">
+        <v>115</v>
+      </c>
+      <c r="U3" t="n">
+        <v>117</v>
+      </c>
+      <c r="V3" t="n">
+        <v>119</v>
+      </c>
+      <c r="W3" t="n">
+        <v>125</v>
+      </c>
+      <c r="X3" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>130</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>148</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>169</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>176</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>177</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>182</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>184</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>186</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>188</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>189</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>197</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>202</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>203</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>215</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>219</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>222</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>224</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>225</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>229</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>231</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>232</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>237</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>240</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>244</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>269</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>270</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>271</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>272</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>277</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>279</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>287</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>292</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>293</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>294</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>296</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>297</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>302</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>303</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>308</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>315</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>316</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>317</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>321</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>324</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>326</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>330</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>333</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>334</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>345</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>352</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>360</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>362</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>367</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>369</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>370</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>375</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>376</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>378</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>383</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>387</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>391</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>392</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>394</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>397</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>399</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>404</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>406</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>412</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>416</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>418</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>423</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>428</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>429</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>434</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>438</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>440</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>443</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>445</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>447</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>449</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>450</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>456</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>459</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>460</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>472</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>477</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>480</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>481</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>483</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>488</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>493</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>496</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61078</v>
+      </c>
+      <c r="B4" t="n">
+        <v>61802</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58782</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62290</v>
+      </c>
+      <c r="E4" t="n">
+        <v>62095</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-22190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-62766</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>164715</v>
+      </c>
+      <c r="B5" t="n">
+        <v>127309</v>
+      </c>
+      <c r="C5" t="n">
+        <v>74404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EB5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>26</v>
+      </c>
+      <c r="H3" t="n">
+        <v>27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39</v>
+      </c>
+      <c r="K3" t="n">
+        <v>42</v>
+      </c>
+      <c r="L3" t="n">
+        <v>43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>46</v>
+      </c>
+      <c r="N3" t="n">
+        <v>54</v>
+      </c>
+      <c r="O3" t="n">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>78</v>
+      </c>
+      <c r="S3" t="n">
+        <v>88</v>
+      </c>
+      <c r="T3" t="n">
+        <v>90</v>
+      </c>
+      <c r="U3" t="n">
+        <v>92</v>
+      </c>
+      <c r="V3" t="n">
+        <v>95</v>
+      </c>
+      <c r="W3" t="n">
+        <v>97</v>
+      </c>
+      <c r="X3" t="n">
+        <v>98</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>106</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>119</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>123</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>169</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>176</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>177</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>178</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>182</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>183</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>184</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>185</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>186</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>188</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>189</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>197</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>199</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>202</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>203</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>211</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>215</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>227</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>229</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>231</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>237</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>240</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>244</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>249</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>269</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>271</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>278</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>279</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>284</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>287</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>290</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>292</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>293</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>294</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>297</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>302</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>303</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>306</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>308</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>314</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>315</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>316</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>317</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>321</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>324</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>326</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>330</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>333</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>345</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>358</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>360</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>361</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>369</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>370</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>375</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>378</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>386</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>387</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>390</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>391</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>392</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>394</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>397</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>399</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>403</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>404</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>406</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>411</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>412</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>416</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>418</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>419</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>425</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>428</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>429</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>432</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>438</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>442</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>444</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>447</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>449</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>450</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>455</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>456</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>460</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>465</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>477</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>481</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>483</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>485</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>492</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>499</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62444</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62202</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58957</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60796</v>
+      </c>
+      <c r="E4" t="n">
+        <v>63633</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-24430</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-63506</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>169209</v>
+      </c>
+      <c r="B5" t="n">
+        <v>145831</v>
+      </c>
+      <c r="C5" t="n">
+        <v>73879</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43</v>
+      </c>
+      <c r="L3" t="n">
+        <v>47</v>
+      </c>
+      <c r="M3" t="n">
+        <v>48</v>
+      </c>
+      <c r="N3" t="n">
+        <v>57</v>
+      </c>
+      <c r="O3" t="n">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>63</v>
+      </c>
+      <c r="R3" t="n">
+        <v>65</v>
+      </c>
+      <c r="S3" t="n">
+        <v>67</v>
+      </c>
+      <c r="T3" t="n">
+        <v>73</v>
+      </c>
+      <c r="U3" t="n">
+        <v>74</v>
+      </c>
+      <c r="V3" t="n">
+        <v>93</v>
+      </c>
+      <c r="W3" t="n">
+        <v>95</v>
+      </c>
+      <c r="X3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>13429</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11900</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11492</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13262</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12986</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11982</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11189</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11736</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11421</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10614</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-5368</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-12929</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-12876</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-12086</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-12488</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>28660</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18159</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>22</v>
       </c>
       <c r="G3" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3" t="n">
+        <v>36</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43</v>
+      </c>
+      <c r="J3" t="n">
+        <v>47</v>
+      </c>
+      <c r="K3" t="n">
+        <v>48</v>
+      </c>
+      <c r="L3" t="n">
+        <v>49</v>
+      </c>
+      <c r="M3" t="n">
+        <v>52</v>
+      </c>
+      <c r="N3" t="n">
+        <v>53</v>
+      </c>
+      <c r="O3" t="n">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>63</v>
+      </c>
+      <c r="R3" t="n">
+        <v>65</v>
+      </c>
+      <c r="S3" t="n">
+        <v>71</v>
+      </c>
+      <c r="T3" t="n">
+        <v>73</v>
+      </c>
+      <c r="U3" t="n">
+        <v>85</v>
+      </c>
+      <c r="V3" t="n">
+        <v>87</v>
+      </c>
+      <c r="W3" t="n">
+        <v>96</v>
+      </c>
+      <c r="X3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10826</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12130</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11842</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13072</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13049</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11279</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9389</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12400</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9744</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-6112</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-9443</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-12373</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-9598</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-13115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>26424</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17121</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BF5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3" t="n">
         <v>26</v>
       </c>
-      <c r="H3" t="n">
-        <v>27</v>
-      </c>
       <c r="I3" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J3" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K3" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L3" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M3" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="O3" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="R3" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="S3" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="T3" t="n">
         <v>85</v>
       </c>
       <c r="U3" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="V3" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="W3" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="X3" t="n">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="Y3" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="Z3" t="n">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="AA3" t="n">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="AB3" t="n">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AC3" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="AD3" t="n">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="AE3" t="n">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="AF3" t="n">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="AG3" t="n">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="AH3" t="n">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AI3" t="n">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="AJ3" t="n">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="AK3" t="n">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="AL3" t="n">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="AM3" t="n">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AN3" t="n">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="AO3" t="n">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AP3" t="n">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AQ3" t="n">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AR3" t="n">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AS3" t="n">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="AT3" t="n">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="AU3" t="n">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="AV3" t="n">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="AW3" t="n">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="AX3" t="n">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="AY3" t="n">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AZ3" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="BA3" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="BB3" t="n">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="BC3" t="n">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="BD3" t="n">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="BE3" t="n">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="BF3" t="n">
-        <v>225</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>227</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>229</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>231</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>232</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>237</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>239</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29400</v>
+        <v>30972</v>
       </c>
       <c r="B4" t="n">
-        <v>29980</v>
+        <v>29901</v>
       </c>
       <c r="C4" t="n">
-        <v>31998</v>
+        <v>28237</v>
       </c>
       <c r="D4" t="n">
-        <v>31226</v>
+        <v>30098</v>
       </c>
       <c r="E4" t="n">
-        <v>29452</v>
+        <v>30907</v>
       </c>
       <c r="F4" t="n">
-        <v>-12379</v>
+        <v>30425</v>
       </c>
       <c r="G4" t="n">
-        <v>-32244</v>
+        <v>30057</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29674</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29847</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31761</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-10714</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-31847</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-31599</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-24748</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-25463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>84753</v>
+        <v>66858</v>
       </c>
       <c r="B5" t="n">
-        <v>70437</v>
+        <v>48320</v>
       </c>
       <c r="C5" t="n">
-        <v>37137</v>
+        <v>36105</v>
       </c>
     </row>
   </sheetData>
